--- a/myday.xlsx
+++ b/myday.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9543620E-3DD7-4A36-BEBF-A41CA56DB0B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDE67F-01A9-4765-9084-DE33D194FF49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,19 +106,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>论文阅读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注：每节45分钟，中间休息五分钟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科研</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,6 +255,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -274,12 +268,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +559,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,16 +568,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -619,53 +607,49 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -695,53 +679,49 @@
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -775,81 +755,64 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A16:H20"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
@@ -865,6 +828,21 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
